--- a/output/1Y_P82_KFSDIV.xlsx
+++ b/output/1Y_P82_KFSDIV.xlsx
@@ -727,16 +727,16 @@
         <v>9.967000000000001</v>
       </c>
       <c r="C2" s="1">
-        <v>9.967000000000001</v>
+        <v>9.947100000000001</v>
       </c>
       <c r="D2" s="1">
-        <v>9.967000000000001</v>
+        <v>9.987</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>1003.3109</v>
+        <v>1001.3017</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -771,31 +771,31 @@
         <v>10.0064</v>
       </c>
       <c r="C3" s="1">
-        <v>10.0064</v>
+        <v>9.9864</v>
       </c>
       <c r="D3" s="1">
-        <v>10.0064</v>
+        <v>10.0265</v>
       </c>
       <c r="E3" s="1">
-        <v>1003.3109</v>
+        <v>1001.3017</v>
       </c>
       <c r="F3" s="1">
-        <v>999.3604</v>
+        <v>997.357</v>
       </c>
       <c r="H3" s="1">
-        <v>10039.5305</v>
+        <v>9999.3992</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10039.5305</v>
+        <v>9999.3992</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>9.967000000000001</v>
+        <v>9.987</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -810,7 +810,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.004</v>
+        <v>-0.0001</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -821,46 +821,46 @@
         <v>10.0129</v>
       </c>
       <c r="C4" s="1">
-        <v>10.0129</v>
+        <v>9.992900000000001</v>
       </c>
       <c r="D4" s="1">
-        <v>10.0129</v>
+        <v>10.033</v>
       </c>
       <c r="E4" s="1">
-        <v>2002.6713</v>
+        <v>1998.6587</v>
       </c>
       <c r="F4" s="1">
-        <v>998.7117</v>
+        <v>996.7109</v>
       </c>
       <c r="H4" s="1">
-        <v>20052.5478</v>
+        <v>19972.3965</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>20052.5478</v>
+        <v>19972.3965</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>9.986700000000001</v>
+        <v>10.0067</v>
       </c>
       <c r="M4" s="1">
         <v>0.3</v>
       </c>
       <c r="N4" s="1">
-        <v>270.894</v>
+        <v>270.3515</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9729.106</v>
+        <v>-9729.648499999999</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0005999999999999999</v>
+        <v>-0.0014</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -871,31 +871,31 @@
         <v>10.4583</v>
       </c>
       <c r="C5" s="1">
-        <v>10.4583</v>
+        <v>10.4374</v>
       </c>
       <c r="D5" s="1">
-        <v>10.4583</v>
+        <v>10.4793</v>
       </c>
       <c r="E5" s="1">
-        <v>3001.383</v>
+        <v>2995.3696</v>
       </c>
       <c r="F5" s="1">
-        <v>959.0564000000001</v>
+        <v>957.1287</v>
       </c>
       <c r="H5" s="1">
-        <v>31389.3638</v>
+        <v>31263.8701</v>
       </c>
       <c r="I5" s="1">
-        <v>270.894</v>
+        <v>270.3515</v>
       </c>
       <c r="J5" s="1">
-        <v>31660.2578</v>
+        <v>31534.2216</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>9.9954</v>
+        <v>10.0155</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -907,10 +907,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10030.0993</v>
+        <v>-10030.0391</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0535</v>
+        <v>0.0521</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -921,31 +921,31 @@
         <v>10.3341</v>
       </c>
       <c r="C6" s="1">
-        <v>10.3341</v>
+        <v>10.3134</v>
       </c>
       <c r="D6" s="1">
-        <v>10.3341</v>
+        <v>10.3548</v>
       </c>
       <c r="E6" s="1">
-        <v>3960.4394</v>
+        <v>3952.4983</v>
       </c>
       <c r="F6" s="1">
-        <v>970.5828</v>
+        <v>968.6367</v>
       </c>
       <c r="H6" s="1">
-        <v>40927.5766</v>
+        <v>40763.6957</v>
       </c>
       <c r="I6" s="1">
-        <v>240.7946</v>
+        <v>240.3124</v>
       </c>
       <c r="J6" s="1">
-        <v>41168.3712</v>
+        <v>41004.0081</v>
       </c>
       <c r="K6" s="1">
-        <v>40030.0993</v>
+        <v>40030.0391</v>
       </c>
       <c r="L6" s="1">
-        <v>10.1075</v>
+        <v>10.1278</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -957,10 +957,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10030.0993</v>
+        <v>-10030.0391</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0118</v>
+        <v>-0.0128</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -971,46 +971,46 @@
         <v>9.884600000000001</v>
       </c>
       <c r="C7" s="1">
-        <v>9.884600000000001</v>
+        <v>9.864800000000001</v>
       </c>
       <c r="D7" s="1">
-        <v>9.884600000000001</v>
+        <v>9.904400000000001</v>
       </c>
       <c r="E7" s="1">
-        <v>4931.0221</v>
+        <v>4921.135</v>
       </c>
       <c r="F7" s="1">
-        <v>1014.7198</v>
+        <v>1012.6852</v>
       </c>
       <c r="H7" s="1">
-        <v>48741.1814</v>
+        <v>48546.0121</v>
       </c>
       <c r="I7" s="1">
-        <v>210.6953</v>
+        <v>210.2734</v>
       </c>
       <c r="J7" s="1">
-        <v>48951.8767</v>
+        <v>48756.2854</v>
       </c>
       <c r="K7" s="1">
-        <v>50060.1987</v>
+        <v>50060.0781</v>
       </c>
       <c r="L7" s="1">
-        <v>10.1521</v>
+        <v>10.1725</v>
       </c>
       <c r="M7" s="1">
         <v>0.5</v>
       </c>
       <c r="N7" s="1">
-        <v>1782.1977</v>
+        <v>1778.6242</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-8247.901599999999</v>
+        <v>-8251.4148</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0433</v>
+        <v>-0.0441</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1021,31 +1021,31 @@
         <v>9.967499999999999</v>
       </c>
       <c r="C8" s="1">
-        <v>9.967499999999999</v>
+        <v>9.9476</v>
       </c>
       <c r="D8" s="1">
-        <v>9.967499999999999</v>
+        <v>9.987500000000001</v>
       </c>
       <c r="E8" s="1">
-        <v>5945.7419</v>
+        <v>5933.8201</v>
       </c>
       <c r="F8" s="1">
-        <v>1036.0805</v>
+        <v>1033.9401</v>
       </c>
       <c r="H8" s="1">
-        <v>59264.1828</v>
+        <v>59027.2691</v>
       </c>
       <c r="I8" s="1">
-        <v>1962.7937</v>
+        <v>1958.8585</v>
       </c>
       <c r="J8" s="1">
-        <v>61226.9765</v>
+        <v>60986.1276</v>
       </c>
       <c r="K8" s="1">
-        <v>60090.298</v>
+        <v>60090.1172</v>
       </c>
       <c r="L8" s="1">
-        <v>10.1064</v>
+        <v>10.1267</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1057,10 +1057,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10327.1323</v>
+        <v>-10326.4764</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0386</v>
+        <v>0.038</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1071,31 +1071,31 @@
         <v>10.4908</v>
       </c>
       <c r="C9" s="1">
-        <v>10.4908</v>
+        <v>10.4698</v>
       </c>
       <c r="D9" s="1">
-        <v>10.4908</v>
+        <v>10.5118</v>
       </c>
       <c r="E9" s="1">
-        <v>6981.8224</v>
+        <v>6967.7602</v>
       </c>
       <c r="F9" s="1">
-        <v>984.3989</v>
+        <v>982.3699</v>
       </c>
       <c r="H9" s="1">
-        <v>73244.90270000001</v>
+        <v>72951.0557</v>
       </c>
       <c r="I9" s="1">
-        <v>1635.6614</v>
+        <v>1632.3821</v>
       </c>
       <c r="J9" s="1">
-        <v>74880.5641</v>
+        <v>74583.4378</v>
       </c>
       <c r="K9" s="1">
-        <v>70417.43030000001</v>
+        <v>70416.59359999999</v>
       </c>
       <c r="L9" s="1">
-        <v>10.0858</v>
+        <v>10.1061</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1107,10 +1107,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-10327.1323</v>
+        <v>-10326.4764</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0513</v>
+        <v>0.0507</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1121,31 +1121,31 @@
         <v>10.6308</v>
       </c>
       <c r="C10" s="1">
-        <v>10.6308</v>
+        <v>10.6095</v>
       </c>
       <c r="D10" s="1">
-        <v>10.6308</v>
+        <v>10.6521</v>
       </c>
       <c r="E10" s="1">
-        <v>7966.2214</v>
+        <v>7950.1301</v>
       </c>
       <c r="F10" s="1">
-        <v>971.4351</v>
+        <v>969.431</v>
       </c>
       <c r="H10" s="1">
-        <v>84687.306</v>
+        <v>84346.9057</v>
       </c>
       <c r="I10" s="1">
-        <v>1308.5291</v>
+        <v>1305.9057</v>
       </c>
       <c r="J10" s="1">
-        <v>85995.8351</v>
+        <v>85652.81140000001</v>
       </c>
       <c r="K10" s="1">
-        <v>80744.5625</v>
+        <v>80743.07000000001</v>
       </c>
       <c r="L10" s="1">
-        <v>10.1359</v>
+        <v>10.1562</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1157,10 +1157,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-10327.1323</v>
+        <v>-10326.4764</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0131</v>
+        <v>0.0126</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1171,31 +1171,31 @@
         <v>10.3176</v>
       </c>
       <c r="C11" s="1">
-        <v>10.3176</v>
+        <v>10.297</v>
       </c>
       <c r="D11" s="1">
-        <v>10.3176</v>
+        <v>10.3383</v>
       </c>
       <c r="E11" s="1">
-        <v>8937.656499999999</v>
+        <v>8919.5612</v>
       </c>
       <c r="F11" s="1">
-        <v>1000.9239</v>
+        <v>998.8563</v>
       </c>
       <c r="H11" s="1">
-        <v>92215.1643</v>
+        <v>91844.7215</v>
       </c>
       <c r="I11" s="1">
-        <v>981.3968</v>
+        <v>979.4293</v>
       </c>
       <c r="J11" s="1">
-        <v>93196.56110000001</v>
+        <v>92824.1508</v>
       </c>
       <c r="K11" s="1">
-        <v>91071.6948</v>
+        <v>91069.54640000001</v>
       </c>
       <c r="L11" s="1">
-        <v>10.1897</v>
+        <v>10.2101</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1207,10 +1207,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-10327.1323</v>
+        <v>-10326.4764</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0292</v>
+        <v>-0.0296</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1221,31 +1221,31 @@
         <v>10.2392</v>
       </c>
       <c r="C12" s="1">
-        <v>10.2392</v>
+        <v>10.2187</v>
       </c>
       <c r="D12" s="1">
-        <v>10.2392</v>
+        <v>10.2597</v>
       </c>
       <c r="E12" s="1">
-        <v>9938.5803</v>
+        <v>9918.4175</v>
       </c>
       <c r="F12" s="1">
-        <v>1008.5878</v>
+        <v>1006.5086</v>
       </c>
       <c r="H12" s="1">
-        <v>101763.1119</v>
+        <v>101353.3331</v>
       </c>
       <c r="I12" s="1">
-        <v>654.2646</v>
+        <v>652.9528</v>
       </c>
       <c r="J12" s="1">
-        <v>102417.3764</v>
+        <v>102006.2859</v>
       </c>
       <c r="K12" s="1">
-        <v>101398.8271</v>
+        <v>101396.0228</v>
       </c>
       <c r="L12" s="1">
-        <v>10.2025</v>
+        <v>10.223</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-10327.1323</v>
+        <v>-10326.4764</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0076</v>
+        <v>-0.008</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1271,46 +1271,46 @@
         <v>9.978999999999999</v>
       </c>
       <c r="C13" s="1">
-        <v>9.978899999999999</v>
+        <v>9.959</v>
       </c>
       <c r="D13" s="1">
-        <v>9.978999999999999</v>
+        <v>9.999000000000001</v>
       </c>
       <c r="E13" s="1">
-        <v>10947.1682</v>
+        <v>10924.9261</v>
       </c>
       <c r="F13" s="1">
-        <v>1034.8865</v>
+        <v>1032.7509</v>
       </c>
       <c r="H13" s="1">
-        <v>109240.6963</v>
+        <v>108801.3393</v>
       </c>
       <c r="I13" s="1">
-        <v>327.1323</v>
+        <v>326.4764</v>
       </c>
       <c r="J13" s="1">
-        <v>109567.8286</v>
+        <v>109127.8158</v>
       </c>
       <c r="K13" s="1">
-        <v>111725.9594</v>
+        <v>111722.4993</v>
       </c>
       <c r="L13" s="1">
-        <v>10.2059</v>
+        <v>10.2264</v>
       </c>
       <c r="M13" s="1">
         <v>0.25</v>
       </c>
       <c r="N13" s="1">
-        <v>2236.1806</v>
+        <v>2231.6439</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-8090.9517</v>
+        <v>-8094.8325</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0253</v>
+        <v>-0.0257</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1321,31 +1321,31 @@
         <v>10.1873</v>
       </c>
       <c r="C14" s="1">
-        <v>10.1873</v>
+        <v>10.1669</v>
       </c>
       <c r="D14" s="1">
-        <v>10.1873</v>
+        <v>10.2077</v>
       </c>
       <c r="E14" s="1">
-        <v>11982.0546</v>
+        <v>11957.677</v>
       </c>
       <c r="F14" s="1">
-        <v>-11982.0546</v>
+        <v>-11957.677</v>
       </c>
       <c r="H14" s="1">
-        <v>122064.7852</v>
+        <v>121572.5068</v>
       </c>
       <c r="I14" s="1">
-        <v>2236.1806</v>
+        <v>2231.6439</v>
       </c>
       <c r="J14" s="1">
-        <v>124300.9658</v>
+        <v>123804.1507</v>
       </c>
       <c r="K14" s="1">
-        <v>122053.0917</v>
+        <v>122048.9757</v>
       </c>
       <c r="L14" s="1">
-        <v>10.1863</v>
+        <v>10.2067</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -1357,10 +1357,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>122064.7852</v>
+        <v>121572.5068</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0396</v>
+        <v>0.0393</v>
       </c>
     </row>
   </sheetData>
@@ -1456,16 +1456,16 @@
         <v>9.967000000000001</v>
       </c>
       <c r="C2" s="1">
-        <v>9.967000000000001</v>
+        <v>9.947100000000001</v>
       </c>
       <c r="D2" s="1">
-        <v>9.967000000000001</v>
+        <v>9.987</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>1003.3109</v>
+        <v>1001.3017</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -1503,34 +1503,34 @@
         <v>10.0064</v>
       </c>
       <c r="C3" s="1">
-        <v>10.0064</v>
+        <v>9.9864</v>
       </c>
       <c r="D3" s="1">
-        <v>10.0064</v>
+        <v>10.0265</v>
       </c>
       <c r="E3" s="1">
-        <v>1003.3109</v>
+        <v>1001.3017</v>
       </c>
       <c r="F3" s="1">
-        <v>995.4099</v>
+        <v>997.357</v>
       </c>
       <c r="G3" s="1">
         <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>10039.5305</v>
+        <v>9999.3992</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10039.5305</v>
+        <v>9999.3992</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>9.967000000000001</v>
+        <v>9.987</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -1542,10 +1542,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9960.469499999999</v>
+        <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.004</v>
+        <v>-0.0001</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1556,49 +1556,49 @@
         <v>10.0129</v>
       </c>
       <c r="C4" s="1">
-        <v>10.0129</v>
+        <v>9.992900000000001</v>
       </c>
       <c r="D4" s="1">
-        <v>10.0129</v>
+        <v>10.033</v>
       </c>
       <c r="E4" s="1">
-        <v>1998.7208</v>
+        <v>1998.6587</v>
       </c>
       <c r="F4" s="1">
-        <v>997.4142000000001</v>
+        <v>996.7109</v>
       </c>
       <c r="G4" s="1">
         <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>20012.9917</v>
+        <v>19972.3965</v>
       </c>
       <c r="I4" s="1">
-        <v>39.5305</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>20052.5221</v>
+        <v>19972.3965</v>
       </c>
       <c r="K4" s="1">
-        <v>19960.4695</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>9.986599999999999</v>
+        <v>10.0067</v>
       </c>
       <c r="M4" s="1">
         <v>0.3</v>
       </c>
       <c r="N4" s="1">
-        <v>270.894</v>
+        <v>270.3515</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9716.1144</v>
+        <v>-9729.648499999999</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0005999999999999999</v>
+        <v>-0.0014</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1609,34 +1609,34 @@
         <v>10.4583</v>
       </c>
       <c r="C5" s="1">
-        <v>10.4583</v>
+        <v>10.4374</v>
       </c>
       <c r="D5" s="1">
-        <v>10.4583</v>
+        <v>10.4793</v>
       </c>
       <c r="E5" s="1">
-        <v>2996.135</v>
+        <v>2995.3696</v>
       </c>
       <c r="F5" s="1">
-        <v>828.5784</v>
+        <v>837.0025000000001</v>
       </c>
       <c r="G5" s="1">
         <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>31334.4785</v>
+        <v>31263.8701</v>
       </c>
       <c r="I5" s="1">
-        <v>323.4161</v>
+        <v>270.3515</v>
       </c>
       <c r="J5" s="1">
-        <v>31657.8946</v>
+        <v>31534.2216</v>
       </c>
       <c r="K5" s="1">
-        <v>29947.4779</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>9.9954</v>
+        <v>10.0155</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -1648,10 +1648,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-8665.521500000001</v>
+        <v>-8771.2003</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0534</v>
+        <v>0.0521</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1662,34 +1662,34 @@
         <v>10.3341</v>
       </c>
       <c r="C6" s="1">
-        <v>10.3341</v>
+        <v>10.3134</v>
       </c>
       <c r="D6" s="1">
-        <v>10.3341</v>
+        <v>10.3548</v>
       </c>
       <c r="E6" s="1">
-        <v>3824.7134</v>
+        <v>3832.372</v>
       </c>
       <c r="F6" s="1">
-        <v>1013.6373</v>
+        <v>1015.6897</v>
       </c>
       <c r="G6" s="1">
         <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>39524.9706</v>
+        <v>39524.7859</v>
       </c>
       <c r="I6" s="1">
-        <v>1657.8946</v>
+        <v>1499.1512</v>
       </c>
       <c r="J6" s="1">
-        <v>41182.8652</v>
+        <v>41023.9371</v>
       </c>
       <c r="K6" s="1">
-        <v>38612.9993</v>
+        <v>38771.2003</v>
       </c>
       <c r="L6" s="1">
-        <v>10.0957</v>
+        <v>10.1168</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -1701,10 +1701,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10475.0294</v>
+        <v>-10517.2637</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0114</v>
+        <v>-0.0123</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1715,49 +1715,49 @@
         <v>9.884600000000001</v>
       </c>
       <c r="C7" s="1">
-        <v>9.884600000000001</v>
+        <v>9.864800000000001</v>
       </c>
       <c r="D7" s="1">
-        <v>9.884600000000001</v>
+        <v>9.904400000000001</v>
       </c>
       <c r="E7" s="1">
-        <v>4838.3507</v>
+        <v>4848.0617</v>
       </c>
       <c r="F7" s="1">
-        <v>1131.3422</v>
+        <v>1108.7888</v>
       </c>
       <c r="G7" s="1">
         <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>47825.1614</v>
+        <v>47825.1595</v>
       </c>
       <c r="I7" s="1">
-        <v>1182.8652</v>
+        <v>981.8875</v>
       </c>
       <c r="J7" s="1">
-        <v>49008.0266</v>
+        <v>48807.047</v>
       </c>
       <c r="K7" s="1">
-        <v>49088.0287</v>
+        <v>49288.4639</v>
       </c>
       <c r="L7" s="1">
-        <v>10.1456</v>
+        <v>10.1666</v>
       </c>
       <c r="M7" s="1">
         <v>0.5</v>
       </c>
       <c r="N7" s="1">
-        <v>1721.121</v>
+        <v>1724.5674</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-9461.744199999999</v>
+        <v>-9257.320100000001</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0425</v>
+        <v>-0.0434</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1768,34 +1768,34 @@
         <v>9.967499999999999</v>
       </c>
       <c r="C8" s="1">
-        <v>9.967499999999999</v>
+        <v>9.9476</v>
       </c>
       <c r="D8" s="1">
-        <v>9.967499999999999</v>
+        <v>9.987500000000001</v>
       </c>
       <c r="E8" s="1">
-        <v>5969.6929</v>
+        <v>5956.8505</v>
       </c>
       <c r="F8" s="1">
-        <v>1053.1313</v>
+        <v>1080.0227</v>
       </c>
       <c r="G8" s="1">
         <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>59502.9141</v>
+        <v>59256.3662</v>
       </c>
       <c r="I8" s="1">
-        <v>1721.121</v>
+        <v>1724.5674</v>
       </c>
       <c r="J8" s="1">
-        <v>61224.0351</v>
+        <v>60980.9336</v>
       </c>
       <c r="K8" s="1">
-        <v>60270.894</v>
+        <v>60270.3515</v>
       </c>
       <c r="L8" s="1">
-        <v>10.0961</v>
+        <v>10.1178</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1807,10 +1807,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10497.0859</v>
+        <v>-10786.7267</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0376</v>
+        <v>0.037</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1821,34 +1821,34 @@
         <v>10.4908</v>
       </c>
       <c r="C9" s="1">
-        <v>10.4908</v>
+        <v>10.4698</v>
       </c>
       <c r="D9" s="1">
-        <v>10.4908</v>
+        <v>10.5118</v>
       </c>
       <c r="E9" s="1">
-        <v>7022.8242</v>
+        <v>7036.8732</v>
       </c>
       <c r="F9" s="1">
-        <v>602.905</v>
+        <v>604.1514</v>
       </c>
       <c r="G9" s="1">
         <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>73675.0439</v>
+        <v>73674.65519999999</v>
       </c>
       <c r="I9" s="1">
-        <v>1224.0351</v>
+        <v>937.8407</v>
       </c>
       <c r="J9" s="1">
-        <v>74899.079</v>
+        <v>74612.49589999999</v>
       </c>
       <c r="K9" s="1">
-        <v>70767.9798</v>
+        <v>71057.0782</v>
       </c>
       <c r="L9" s="1">
-        <v>10.0769</v>
+        <v>10.0978</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1860,10 +1860,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-6324.9561</v>
+        <v>-6350.7192</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0516</v>
+        <v>0.0512</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1874,34 +1874,34 @@
         <v>10.6308</v>
       </c>
       <c r="C10" s="1">
-        <v>10.6308</v>
+        <v>10.6095</v>
       </c>
       <c r="D10" s="1">
-        <v>10.6308</v>
+        <v>10.6521</v>
       </c>
       <c r="E10" s="1">
-        <v>7625.7292</v>
+        <v>7641.0247</v>
       </c>
       <c r="F10" s="1">
-        <v>840.2376</v>
+        <v>841.9387</v>
       </c>
       <c r="G10" s="1">
         <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>81067.6021</v>
+        <v>81067.45110000001</v>
       </c>
       <c r="I10" s="1">
-        <v>4899.079</v>
+        <v>4587.1215</v>
       </c>
       <c r="J10" s="1">
-        <v>85966.6811</v>
+        <v>85654.5727</v>
       </c>
       <c r="K10" s="1">
-        <v>77092.9359</v>
+        <v>77407.79730000001</v>
       </c>
       <c r="L10" s="1">
-        <v>10.1096</v>
+        <v>10.1306</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1913,10 +1913,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-8932.3979</v>
+        <v>-8968.4154</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0126</v>
+        <v>0.0123</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1927,34 +1927,34 @@
         <v>10.3176</v>
       </c>
       <c r="C11" s="1">
-        <v>10.3176</v>
+        <v>10.297</v>
       </c>
       <c r="D11" s="1">
-        <v>10.3176</v>
+        <v>10.3383</v>
       </c>
       <c r="E11" s="1">
-        <v>8465.9668</v>
+        <v>8482.963400000001</v>
       </c>
       <c r="F11" s="1">
-        <v>1226.2097</v>
+        <v>1228.6031</v>
       </c>
       <c r="G11" s="1">
         <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>87348.4592</v>
+        <v>87349.0739</v>
       </c>
       <c r="I11" s="1">
-        <v>5966.6811</v>
+        <v>5618.7061</v>
       </c>
       <c r="J11" s="1">
-        <v>93315.1403</v>
+        <v>92967.78</v>
       </c>
       <c r="K11" s="1">
-        <v>86025.3339</v>
+        <v>86376.21279999999</v>
       </c>
       <c r="L11" s="1">
-        <v>10.1613</v>
+        <v>10.1823</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1966,10 +1966,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-12651.5408</v>
+        <v>-12701.6674</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0276</v>
+        <v>-0.0281</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1980,34 +1980,34 @@
         <v>10.2392</v>
       </c>
       <c r="C12" s="1">
-        <v>10.2392</v>
+        <v>10.2187</v>
       </c>
       <c r="D12" s="1">
-        <v>10.2392</v>
+        <v>10.2597</v>
       </c>
       <c r="E12" s="1">
-        <v>9692.1765</v>
+        <v>9711.566500000001</v>
       </c>
       <c r="F12" s="1">
-        <v>1050.8503</v>
+        <v>1053.0122</v>
       </c>
       <c r="G12" s="1">
         <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>99240.13340000001</v>
+        <v>99239.5843</v>
       </c>
       <c r="I12" s="1">
-        <v>3315.1403</v>
+        <v>2917.0387</v>
       </c>
       <c r="J12" s="1">
-        <v>102555.2737</v>
+        <v>102156.6231</v>
       </c>
       <c r="K12" s="1">
-        <v>98676.8747</v>
+        <v>99077.88009999999</v>
       </c>
       <c r="L12" s="1">
-        <v>10.1811</v>
+        <v>10.202</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-10759.8666</v>
+        <v>-10803.5892</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0074</v>
+        <v>-0.007900000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2033,49 +2033,49 @@
         <v>9.978999999999999</v>
       </c>
       <c r="C13" s="1">
-        <v>9.978899999999999</v>
+        <v>9.959</v>
       </c>
       <c r="D13" s="1">
-        <v>9.978999999999999</v>
+        <v>9.999000000000001</v>
       </c>
       <c r="E13" s="1">
-        <v>10743.0268</v>
+        <v>10764.5787</v>
       </c>
       <c r="F13" s="1">
-        <v>1258.1695</v>
+        <v>1211.4661</v>
       </c>
       <c r="G13" s="1">
         <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>107203.5901</v>
+        <v>107204.4389</v>
       </c>
       <c r="I13" s="1">
-        <v>2555.2737</v>
+        <v>2113.4496</v>
       </c>
       <c r="J13" s="1">
-        <v>109758.8638</v>
+        <v>109317.8885</v>
       </c>
       <c r="K13" s="1">
-        <v>109436.7413</v>
+        <v>109881.4693</v>
       </c>
       <c r="L13" s="1">
-        <v>10.1868</v>
+        <v>10.2077</v>
       </c>
       <c r="M13" s="1">
         <v>0.25</v>
       </c>
       <c r="N13" s="1">
-        <v>2180.7397</v>
+        <v>2185.1025</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-10374.534</v>
+        <v>-9928.347100000001</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0248</v>
+        <v>-0.0253</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2086,34 +2086,34 @@
         <v>10.1873</v>
       </c>
       <c r="C14" s="1">
-        <v>10.1873</v>
+        <v>10.1669</v>
       </c>
       <c r="D14" s="1">
-        <v>10.1873</v>
+        <v>10.2077</v>
       </c>
       <c r="E14" s="1">
-        <v>12001.1963</v>
+        <v>11976.0448</v>
       </c>
       <c r="F14" s="1">
-        <v>-12001.1963</v>
+        <v>-11976.0448</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>122259.7873</v>
+        <v>121759.2496</v>
       </c>
       <c r="I14" s="1">
-        <v>2180.7397</v>
+        <v>2185.1025</v>
       </c>
       <c r="J14" s="1">
-        <v>124440.527</v>
+        <v>123944.352</v>
       </c>
       <c r="K14" s="1">
-        <v>121992.015</v>
+        <v>121994.9189</v>
       </c>
       <c r="L14" s="1">
-        <v>10.165</v>
+        <v>10.1866</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2125,10 +2125,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>122259.7873</v>
+        <v>121759.2496</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0391</v>
+        <v>0.0388</v>
       </c>
     </row>
   </sheetData>
@@ -2224,16 +2224,16 @@
         <v>9.967000000000001</v>
       </c>
       <c r="C2" s="1">
-        <v>9.967000000000001</v>
+        <v>9.947100000000001</v>
       </c>
       <c r="D2" s="1">
-        <v>9.967000000000001</v>
+        <v>9.987</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>1003.3109</v>
+        <v>1001.3017</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -2271,34 +2271,34 @@
         <v>10.0064</v>
       </c>
       <c r="C3" s="1">
-        <v>10.0064</v>
+        <v>9.9864</v>
       </c>
       <c r="D3" s="1">
-        <v>10.0064</v>
+        <v>10.0265</v>
       </c>
       <c r="E3" s="1">
-        <v>1003.3109</v>
+        <v>1001.3017</v>
       </c>
       <c r="F3" s="1">
-        <v>999.3604</v>
+        <v>997.357</v>
       </c>
       <c r="G3" s="1">
         <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>10039.5305</v>
+        <v>9999.3992</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10039.5305</v>
+        <v>9999.3992</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>9.967000000000001</v>
+        <v>9.987</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -2313,7 +2313,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.004</v>
+        <v>-0.0001</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2324,49 +2324,49 @@
         <v>10.0129</v>
       </c>
       <c r="C4" s="1">
-        <v>10.0129</v>
+        <v>9.992900000000001</v>
       </c>
       <c r="D4" s="1">
-        <v>10.0129</v>
+        <v>10.033</v>
       </c>
       <c r="E4" s="1">
-        <v>2002.6713</v>
+        <v>1998.6587</v>
       </c>
       <c r="F4" s="1">
-        <v>998.7117</v>
+        <v>996.7109</v>
       </c>
       <c r="G4" s="1">
         <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>20052.5478</v>
+        <v>19972.3965</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>20052.5478</v>
+        <v>19972.3965</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>9.986700000000001</v>
+        <v>10.0067</v>
       </c>
       <c r="M4" s="1">
         <v>0.3</v>
       </c>
       <c r="N4" s="1">
-        <v>270.894</v>
+        <v>270.3515</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9729.106</v>
+        <v>-9729.648499999999</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0005999999999999999</v>
+        <v>-0.0014</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2377,34 +2377,34 @@
         <v>10.4583</v>
       </c>
       <c r="C5" s="1">
-        <v>10.4583</v>
+        <v>10.4374</v>
       </c>
       <c r="D5" s="1">
-        <v>10.4583</v>
+        <v>10.4793</v>
       </c>
       <c r="E5" s="1">
-        <v>3001.383</v>
+        <v>2995.3696</v>
       </c>
       <c r="F5" s="1">
-        <v>852.1115</v>
+        <v>865.8412</v>
       </c>
       <c r="G5" s="1">
         <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>31389.3638</v>
+        <v>31263.8701</v>
       </c>
       <c r="I5" s="1">
-        <v>270.894</v>
+        <v>270.3515</v>
       </c>
       <c r="J5" s="1">
-        <v>31660.2578</v>
+        <v>31534.2216</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>9.9954</v>
+        <v>10.0155</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -2416,10 +2416,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-8911.6374</v>
+        <v>-9073.409900000001</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0535</v>
+        <v>0.0521</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2430,34 +2430,34 @@
         <v>10.3341</v>
       </c>
       <c r="C6" s="1">
-        <v>10.3341</v>
+        <v>10.3134</v>
       </c>
       <c r="D6" s="1">
-        <v>10.3341</v>
+        <v>10.3548</v>
       </c>
       <c r="E6" s="1">
-        <v>3853.4945</v>
+        <v>3861.2108</v>
       </c>
       <c r="F6" s="1">
-        <v>1033.4823</v>
+        <v>1035.5746</v>
       </c>
       <c r="G6" s="1">
         <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>39822.3972</v>
+        <v>39822.2111</v>
       </c>
       <c r="I6" s="1">
-        <v>1359.2565</v>
+        <v>1196.9416</v>
       </c>
       <c r="J6" s="1">
-        <v>41181.6537</v>
+        <v>41019.1527</v>
       </c>
       <c r="K6" s="1">
-        <v>38911.6374</v>
+        <v>39073.4099</v>
       </c>
       <c r="L6" s="1">
-        <v>10.0978</v>
+        <v>10.1195</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -2469,10 +2469,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10680.109</v>
+        <v>-10723.1679</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0115</v>
+        <v>-0.0124</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2483,49 +2483,49 @@
         <v>9.884600000000001</v>
       </c>
       <c r="C7" s="1">
-        <v>9.884600000000001</v>
+        <v>9.864800000000001</v>
       </c>
       <c r="D7" s="1">
-        <v>9.884600000000001</v>
+        <v>9.904400000000001</v>
       </c>
       <c r="E7" s="1">
-        <v>4886.9767</v>
+        <v>4896.7854</v>
       </c>
       <c r="F7" s="1">
-        <v>1080.3824</v>
+        <v>1057.4869</v>
       </c>
       <c r="G7" s="1">
         <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>48305.8102</v>
+        <v>48305.8083</v>
       </c>
       <c r="I7" s="1">
-        <v>679.1475</v>
+        <v>473.7737</v>
       </c>
       <c r="J7" s="1">
-        <v>48984.9577</v>
+        <v>48779.582</v>
       </c>
       <c r="K7" s="1">
-        <v>49591.7465</v>
+        <v>49796.5778</v>
       </c>
       <c r="L7" s="1">
-        <v>10.1477</v>
+        <v>10.1692</v>
       </c>
       <c r="M7" s="1">
         <v>0.5</v>
       </c>
       <c r="N7" s="1">
-        <v>1734.0725</v>
+        <v>1737.5448</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-8945.075000000001</v>
+        <v>-8736.228800000001</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0429</v>
+        <v>-0.0439</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2536,34 +2536,34 @@
         <v>9.967499999999999</v>
       </c>
       <c r="C8" s="1">
-        <v>9.967499999999999</v>
+        <v>9.9476</v>
       </c>
       <c r="D8" s="1">
-        <v>9.967499999999999</v>
+        <v>9.987500000000001</v>
       </c>
       <c r="E8" s="1">
-        <v>5967.3591</v>
+        <v>5954.2723</v>
       </c>
       <c r="F8" s="1">
-        <v>1161.6897</v>
+        <v>1175.2235</v>
       </c>
       <c r="G8" s="1">
         <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>59479.6518</v>
+        <v>59230.7193</v>
       </c>
       <c r="I8" s="1">
-        <v>1734.0725</v>
+        <v>1737.5448</v>
       </c>
       <c r="J8" s="1">
-        <v>61213.7243</v>
+        <v>60968.2641</v>
       </c>
       <c r="K8" s="1">
-        <v>60270.894</v>
+        <v>60270.3515</v>
       </c>
       <c r="L8" s="1">
-        <v>10.1001</v>
+        <v>10.1222</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -2575,10 +2575,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-11579.1421</v>
+        <v>-11737.5448</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0378</v>
+        <v>0.0372</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2589,34 +2589,34 @@
         <v>10.4908</v>
       </c>
       <c r="C9" s="1">
-        <v>10.4908</v>
+        <v>10.4698</v>
       </c>
       <c r="D9" s="1">
-        <v>10.4908</v>
+        <v>10.5118</v>
       </c>
       <c r="E9" s="1">
-        <v>7129.0488</v>
+        <v>7129.4958</v>
       </c>
       <c r="F9" s="1">
-        <v>631.4736</v>
+        <v>646.5923</v>
       </c>
       <c r="G9" s="1">
         <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>74789.42509999999</v>
+        <v>74644.39539999999</v>
       </c>
       <c r="I9" s="1">
-        <v>154.9304</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>74944.35550000001</v>
+        <v>74644.39539999999</v>
       </c>
       <c r="K9" s="1">
-        <v>71850.0361</v>
+        <v>72007.89629999999</v>
       </c>
       <c r="L9" s="1">
-        <v>10.0785</v>
+        <v>10.1</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -2628,10 +2628,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-6624.6627</v>
+        <v>-6796.8493</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0524</v>
+        <v>0.0518</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2642,34 +2642,34 @@
         <v>10.6308</v>
       </c>
       <c r="C10" s="1">
-        <v>10.6308</v>
+        <v>10.6095</v>
       </c>
       <c r="D10" s="1">
-        <v>10.6308</v>
+        <v>10.6521</v>
       </c>
       <c r="E10" s="1">
-        <v>7760.5223</v>
+        <v>7776.0882</v>
       </c>
       <c r="F10" s="1">
-        <v>876.7541</v>
+        <v>878.5288</v>
       </c>
       <c r="G10" s="1">
         <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>82500.561</v>
+        <v>82500.4074</v>
       </c>
       <c r="I10" s="1">
-        <v>3530.2677</v>
+        <v>3203.1507</v>
       </c>
       <c r="J10" s="1">
-        <v>86030.82859999999</v>
+        <v>85703.55809999999</v>
       </c>
       <c r="K10" s="1">
-        <v>78474.6988</v>
+        <v>78804.74559999999</v>
       </c>
       <c r="L10" s="1">
-        <v>10.112</v>
+        <v>10.1342</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -2681,10 +2681,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-9320.597299999999</v>
+        <v>-9358.1762</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0128</v>
+        <v>0.0125</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2695,34 +2695,34 @@
         <v>10.3176</v>
       </c>
       <c r="C11" s="1">
-        <v>10.3176</v>
+        <v>10.297</v>
       </c>
       <c r="D11" s="1">
-        <v>10.3176</v>
+        <v>10.3383</v>
       </c>
       <c r="E11" s="1">
-        <v>8637.276400000001</v>
+        <v>8654.616900000001</v>
       </c>
       <c r="F11" s="1">
-        <v>1275.9073</v>
+        <v>1278.3989</v>
       </c>
       <c r="G11" s="1">
         <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>89115.9633</v>
+        <v>89116.59050000001</v>
       </c>
       <c r="I11" s="1">
-        <v>4209.6704</v>
+        <v>3844.9744</v>
       </c>
       <c r="J11" s="1">
-        <v>93325.63370000001</v>
+        <v>92961.5649</v>
       </c>
       <c r="K11" s="1">
-        <v>87795.29610000001</v>
+        <v>88162.9219</v>
       </c>
       <c r="L11" s="1">
-        <v>10.1647</v>
+        <v>10.1868</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -2734,10 +2734,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-13164.3008</v>
+        <v>-13216.4715</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0282</v>
+        <v>-0.0287</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2748,34 +2748,34 @@
         <v>10.2392</v>
       </c>
       <c r="C12" s="1">
-        <v>10.2392</v>
+        <v>10.2187</v>
       </c>
       <c r="D12" s="1">
-        <v>10.2392</v>
+        <v>10.2597</v>
       </c>
       <c r="E12" s="1">
-        <v>9913.1837</v>
+        <v>9933.015799999999</v>
       </c>
       <c r="F12" s="1">
-        <v>1078.7336</v>
+        <v>1035.9468</v>
       </c>
       <c r="G12" s="1">
         <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>101503.0705</v>
+        <v>101502.5089</v>
       </c>
       <c r="I12" s="1">
-        <v>1045.3696</v>
+        <v>628.503</v>
       </c>
       <c r="J12" s="1">
-        <v>102548.4401</v>
+        <v>102131.0119</v>
       </c>
       <c r="K12" s="1">
-        <v>100959.5969</v>
+        <v>101379.3933</v>
       </c>
       <c r="L12" s="1">
-        <v>10.1844</v>
+        <v>10.2063</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2787,10 +2787,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-11045.3696</v>
+        <v>-10628.503</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0075</v>
+        <v>-0.0081</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2801,49 +2801,49 @@
         <v>9.978999999999999</v>
       </c>
       <c r="C13" s="1">
-        <v>9.978899999999999</v>
+        <v>9.959</v>
       </c>
       <c r="D13" s="1">
-        <v>9.978999999999999</v>
+        <v>9.999000000000001</v>
       </c>
       <c r="E13" s="1">
-        <v>10991.9173</v>
+        <v>10968.9626</v>
       </c>
       <c r="F13" s="1">
-        <v>1002.1044</v>
+        <v>1000.1</v>
       </c>
       <c r="G13" s="1">
         <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>109687.244</v>
+        <v>109239.8985</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>109687.244</v>
+        <v>109239.8985</v>
       </c>
       <c r="K13" s="1">
-        <v>112004.9665</v>
+        <v>112007.8963</v>
       </c>
       <c r="L13" s="1">
-        <v>10.1898</v>
+        <v>10.2113</v>
       </c>
       <c r="M13" s="1">
         <v>0.25</v>
       </c>
       <c r="N13" s="1">
-        <v>2230.4663</v>
+        <v>2234.9286</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-7769.5337</v>
+        <v>-7765.0714</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0254</v>
+        <v>-0.0258</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2854,34 +2854,34 @@
         <v>10.1873</v>
       </c>
       <c r="C14" s="1">
-        <v>10.1873</v>
+        <v>10.1669</v>
       </c>
       <c r="D14" s="1">
-        <v>10.1873</v>
+        <v>10.2077</v>
       </c>
       <c r="E14" s="1">
-        <v>11994.0218</v>
+        <v>11969.0626</v>
       </c>
       <c r="F14" s="1">
-        <v>-11994.0218</v>
+        <v>-11969.0626</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>122186.6979</v>
+        <v>121688.2626</v>
       </c>
       <c r="I14" s="1">
-        <v>2230.4663</v>
+        <v>2234.9286</v>
       </c>
       <c r="J14" s="1">
-        <v>124417.1642</v>
+        <v>123923.1912</v>
       </c>
       <c r="K14" s="1">
-        <v>122004.9665</v>
+        <v>122007.8963</v>
       </c>
       <c r="L14" s="1">
-        <v>10.1721</v>
+        <v>10.1936</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2893,10 +2893,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>122186.6979</v>
+        <v>121688.2626</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0395</v>
+        <v>0.0393</v>
       </c>
     </row>
   </sheetData>
@@ -2992,16 +2992,16 @@
         <v>9.967000000000001</v>
       </c>
       <c r="C2" s="1">
-        <v>9.967000000000001</v>
+        <v>9.947100000000001</v>
       </c>
       <c r="D2" s="1">
-        <v>9.967000000000001</v>
+        <v>9.987</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>1003.3109</v>
+        <v>1001.3017</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3039,34 +3039,34 @@
         <v>10.0064</v>
       </c>
       <c r="C3" s="1">
-        <v>10.0064</v>
+        <v>9.9864</v>
       </c>
       <c r="D3" s="1">
-        <v>10.0064</v>
+        <v>10.0265</v>
       </c>
       <c r="E3" s="1">
-        <v>1003.3109</v>
+        <v>1001.3017</v>
       </c>
       <c r="F3" s="1">
-        <v>999.3604</v>
+        <v>997.357</v>
       </c>
       <c r="G3" s="1">
         <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>10039.5305</v>
+        <v>9999.3992</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10039.5305</v>
+        <v>9999.3992</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>9.967000000000001</v>
+        <v>9.987</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -3081,7 +3081,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.004</v>
+        <v>-0.0001</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3092,49 +3092,49 @@
         <v>10.0129</v>
       </c>
       <c r="C4" s="1">
-        <v>10.0129</v>
+        <v>9.992900000000001</v>
       </c>
       <c r="D4" s="1">
-        <v>10.0129</v>
+        <v>10.033</v>
       </c>
       <c r="E4" s="1">
-        <v>2002.6713</v>
+        <v>1998.6587</v>
       </c>
       <c r="F4" s="1">
-        <v>998.7117</v>
+        <v>996.7109</v>
       </c>
       <c r="G4" s="1">
         <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>20052.5478</v>
+        <v>19972.3965</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>20052.5478</v>
+        <v>19972.3965</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>9.986700000000001</v>
+        <v>10.0067</v>
       </c>
       <c r="M4" s="1">
         <v>0.3</v>
       </c>
       <c r="N4" s="1">
-        <v>270.894</v>
+        <v>270.3515</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9729.106</v>
+        <v>-9729.648499999999</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0005999999999999999</v>
+        <v>-0.0014</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3145,34 +3145,34 @@
         <v>10.4583</v>
       </c>
       <c r="C5" s="1">
-        <v>10.4583</v>
+        <v>10.4374</v>
       </c>
       <c r="D5" s="1">
-        <v>10.4583</v>
+        <v>10.4793</v>
       </c>
       <c r="E5" s="1">
-        <v>3001.383</v>
+        <v>2995.3696</v>
       </c>
       <c r="F5" s="1">
-        <v>881.0845</v>
+        <v>894.8723</v>
       </c>
       <c r="G5" s="1">
         <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>31389.3638</v>
+        <v>31263.8701</v>
       </c>
       <c r="I5" s="1">
-        <v>270.894</v>
+        <v>270.3515</v>
       </c>
       <c r="J5" s="1">
-        <v>31660.2578</v>
+        <v>31534.2216</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>9.9954</v>
+        <v>10.0155</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -3184,10 +3184,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9214.646199999999</v>
+        <v>-9377.635</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0535</v>
+        <v>0.0521</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3198,34 +3198,34 @@
         <v>10.3341</v>
       </c>
       <c r="C6" s="1">
-        <v>10.3341</v>
+        <v>10.3134</v>
       </c>
       <c r="D6" s="1">
-        <v>10.3341</v>
+        <v>10.3548</v>
       </c>
       <c r="E6" s="1">
-        <v>3882.4675</v>
+        <v>3890.2418</v>
       </c>
       <c r="F6" s="1">
-        <v>1053.6227</v>
+        <v>1055.7556</v>
       </c>
       <c r="G6" s="1">
         <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>40121.8075</v>
+        <v>40121.62</v>
       </c>
       <c r="I6" s="1">
-        <v>1056.2478</v>
+        <v>892.7165</v>
       </c>
       <c r="J6" s="1">
-        <v>41178.0553</v>
+        <v>41014.3365</v>
       </c>
       <c r="K6" s="1">
-        <v>39214.6462</v>
+        <v>39377.635</v>
       </c>
       <c r="L6" s="1">
-        <v>10.1004</v>
+        <v>10.1222</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10888.2426</v>
+        <v>-10932.1384</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0116</v>
+        <v>-0.0125</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3251,49 +3251,49 @@
         <v>9.884600000000001</v>
       </c>
       <c r="C7" s="1">
-        <v>9.884600000000001</v>
+        <v>9.864800000000001</v>
       </c>
       <c r="D7" s="1">
-        <v>9.884600000000001</v>
+        <v>9.904400000000001</v>
       </c>
       <c r="E7" s="1">
-        <v>4936.0902</v>
+        <v>4945.9974</v>
       </c>
       <c r="F7" s="1">
-        <v>1028.6714</v>
+        <v>1005.672</v>
       </c>
       <c r="G7" s="1">
         <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>48791.2775</v>
+        <v>48791.2756</v>
       </c>
       <c r="I7" s="1">
-        <v>168.0052</v>
+        <v>-39.4219</v>
       </c>
       <c r="J7" s="1">
-        <v>48959.2827</v>
+        <v>48751.8537</v>
       </c>
       <c r="K7" s="1">
-        <v>50102.8888</v>
+        <v>50309.7734</v>
       </c>
       <c r="L7" s="1">
-        <v>10.1503</v>
+        <v>10.1718</v>
       </c>
       <c r="M7" s="1">
         <v>0.5</v>
       </c>
       <c r="N7" s="1">
-        <v>1747.1104</v>
+        <v>1750.6088</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-8420.8948</v>
+        <v>-8209.969300000001</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0434</v>
+        <v>-0.0443</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3304,34 +3304,34 @@
         <v>9.967499999999999</v>
       </c>
       <c r="C8" s="1">
-        <v>9.967499999999999</v>
+        <v>9.9476</v>
       </c>
       <c r="D8" s="1">
-        <v>9.967499999999999</v>
+        <v>9.987500000000001</v>
       </c>
       <c r="E8" s="1">
-        <v>5964.7616</v>
+        <v>5951.6695</v>
       </c>
       <c r="F8" s="1">
-        <v>1178.5413</v>
+        <v>1176.5315</v>
       </c>
       <c r="G8" s="1">
         <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>59453.7615</v>
+        <v>59204.8273</v>
       </c>
       <c r="I8" s="1">
-        <v>1747.1104</v>
+        <v>1750.6088</v>
       </c>
       <c r="J8" s="1">
-        <v>61200.8718</v>
+        <v>60955.4362</v>
       </c>
       <c r="K8" s="1">
-        <v>60270.894</v>
+        <v>60270.3515</v>
       </c>
       <c r="L8" s="1">
-        <v>10.1045</v>
+        <v>10.1266</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -3343,10 +3343,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-11747.1104</v>
+        <v>-11750.6088</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.038</v>
+        <v>0.0375</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3357,34 +3357,34 @@
         <v>10.4908</v>
       </c>
       <c r="C9" s="1">
-        <v>10.4908</v>
+        <v>10.4698</v>
       </c>
       <c r="D9" s="1">
-        <v>10.4908</v>
+        <v>10.5118</v>
       </c>
       <c r="E9" s="1">
-        <v>7143.3029</v>
+        <v>7128.201</v>
       </c>
       <c r="F9" s="1">
-        <v>754.7320999999999</v>
+        <v>785.6756</v>
       </c>
       <c r="G9" s="1">
         <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>74938.9623</v>
+        <v>74630.8391</v>
       </c>
       <c r="I9" s="1">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J9" s="1">
-        <v>74938.9623</v>
+        <v>74630.8391</v>
       </c>
       <c r="K9" s="1">
-        <v>72018.0043</v>
+        <v>72020.96030000001</v>
       </c>
       <c r="L9" s="1">
-        <v>10.0819</v>
+        <v>10.1037</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -3396,10 +3396,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-7917.7434</v>
+        <v>-8258.8649</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0525</v>
+        <v>0.0518</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3410,34 +3410,34 @@
         <v>10.6308</v>
       </c>
       <c r="C10" s="1">
-        <v>10.6308</v>
+        <v>10.6095</v>
       </c>
       <c r="D10" s="1">
-        <v>10.6308</v>
+        <v>10.6521</v>
       </c>
       <c r="E10" s="1">
-        <v>7898.035</v>
+        <v>7913.8766</v>
       </c>
       <c r="F10" s="1">
-        <v>914.5918</v>
+        <v>916.4426999999999</v>
       </c>
       <c r="G10" s="1">
         <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>83962.4305</v>
+        <v>83962.2742</v>
       </c>
       <c r="I10" s="1">
-        <v>2082.2566</v>
+        <v>1741.1351</v>
       </c>
       <c r="J10" s="1">
-        <v>86044.6872</v>
+        <v>85703.4093</v>
       </c>
       <c r="K10" s="1">
-        <v>79935.74770000001</v>
+        <v>80279.8251</v>
       </c>
       <c r="L10" s="1">
-        <v>10.121</v>
+        <v>10.1442</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -3449,10 +3449,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-9722.842199999999</v>
+        <v>-9762.0389</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.013</v>
+        <v>0.0127</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3463,34 +3463,34 @@
         <v>10.3176</v>
       </c>
       <c r="C11" s="1">
-        <v>10.3176</v>
+        <v>10.297</v>
       </c>
       <c r="D11" s="1">
-        <v>10.3176</v>
+        <v>10.3383</v>
       </c>
       <c r="E11" s="1">
-        <v>8812.6268</v>
+        <v>8830.319299999999</v>
       </c>
       <c r="F11" s="1">
-        <v>1197.8963</v>
+        <v>1158.7104</v>
       </c>
       <c r="G11" s="1">
         <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>90925.158</v>
+        <v>90925.79790000001</v>
       </c>
       <c r="I11" s="1">
-        <v>2359.4145</v>
+        <v>1979.0962</v>
       </c>
       <c r="J11" s="1">
-        <v>93284.57249999999</v>
+        <v>92904.8941</v>
       </c>
       <c r="K11" s="1">
-        <v>89658.58990000001</v>
+        <v>90041.86410000001</v>
       </c>
       <c r="L11" s="1">
-        <v>10.1739</v>
+        <v>10.1969</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -3502,10 +3502,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-12359.4145</v>
+        <v>-11979.0962</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0287</v>
+        <v>-0.0292</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3516,34 +3516,34 @@
         <v>10.2392</v>
       </c>
       <c r="C12" s="1">
-        <v>10.2392</v>
+        <v>10.2187</v>
       </c>
       <c r="D12" s="1">
-        <v>10.2392</v>
+        <v>10.2597</v>
       </c>
       <c r="E12" s="1">
-        <v>10010.523</v>
+        <v>9989.0298</v>
       </c>
       <c r="F12" s="1">
-        <v>976.6387999999999</v>
+        <v>974.6874</v>
       </c>
       <c r="G12" s="1">
         <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>102499.7475</v>
+        <v>102074.8983</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>102499.7475</v>
+        <v>102074.8983</v>
       </c>
       <c r="K12" s="1">
-        <v>102018.0043</v>
+        <v>102020.9603</v>
       </c>
       <c r="L12" s="1">
-        <v>10.1911</v>
+        <v>10.2133</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -3558,7 +3558,7 @@
         <v>-10000</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0076</v>
+        <v>-0.0081</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3569,49 +3569,49 @@
         <v>9.978999999999999</v>
       </c>
       <c r="C13" s="1">
-        <v>9.978899999999999</v>
+        <v>9.959</v>
       </c>
       <c r="D13" s="1">
-        <v>9.978999999999999</v>
+        <v>9.999000000000001</v>
       </c>
       <c r="E13" s="1">
-        <v>10987.1618</v>
+        <v>10963.7171</v>
       </c>
       <c r="F13" s="1">
-        <v>1002.1044</v>
+        <v>1000.1</v>
       </c>
       <c r="G13" s="1">
         <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>109639.7892</v>
+        <v>109187.6588</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>109639.7892</v>
+        <v>109187.6588</v>
       </c>
       <c r="K13" s="1">
-        <v>112018.0043</v>
+        <v>112020.9603</v>
       </c>
       <c r="L13" s="1">
-        <v>10.1954</v>
+        <v>10.2174</v>
       </c>
       <c r="M13" s="1">
         <v>0.25</v>
       </c>
       <c r="N13" s="1">
-        <v>2252.3677</v>
+        <v>2247.5317</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-7747.6323</v>
+        <v>-7752.4683</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0254</v>
+        <v>-0.0258</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3622,34 +3622,34 @@
         <v>10.1873</v>
       </c>
       <c r="C14" s="1">
-        <v>10.1873</v>
+        <v>10.1669</v>
       </c>
       <c r="D14" s="1">
-        <v>10.1873</v>
+        <v>10.2077</v>
       </c>
       <c r="E14" s="1">
-        <v>11989.2663</v>
+        <v>11963.8171</v>
       </c>
       <c r="F14" s="1">
-        <v>-11989.2663</v>
+        <v>-11963.8171</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>122138.2521</v>
+        <v>121634.9324</v>
       </c>
       <c r="I14" s="1">
-        <v>2252.3677</v>
+        <v>2247.5317</v>
       </c>
       <c r="J14" s="1">
-        <v>124390.6198</v>
+        <v>123882.4641</v>
       </c>
       <c r="K14" s="1">
-        <v>122018.0043</v>
+        <v>122020.9603</v>
       </c>
       <c r="L14" s="1">
-        <v>10.1773</v>
+        <v>10.1992</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -3661,10 +3661,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>122138.2521</v>
+        <v>121634.9324</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0397</v>
+        <v>0.0394</v>
       </c>
     </row>
   </sheetData>
@@ -3688,7 +3688,7 @@
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
     <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
     <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
     <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
@@ -3760,16 +3760,16 @@
         <v>9.967000000000001</v>
       </c>
       <c r="C2" s="1">
-        <v>9.967000000000001</v>
+        <v>9.947100000000001</v>
       </c>
       <c r="D2" s="1">
-        <v>9.967000000000001</v>
+        <v>9.987</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>1003.3109</v>
+        <v>1001.3017</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3807,34 +3807,34 @@
         <v>10.0064</v>
       </c>
       <c r="C3" s="1">
-        <v>10.0064</v>
+        <v>9.9864</v>
       </c>
       <c r="D3" s="1">
-        <v>10.0064</v>
+        <v>10.0265</v>
       </c>
       <c r="E3" s="1">
-        <v>1003.3109</v>
+        <v>1001.3017</v>
       </c>
       <c r="F3" s="1">
-        <v>999.3604</v>
+        <v>997.357</v>
       </c>
       <c r="G3" s="1">
         <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>10039.5305</v>
+        <v>9999.3992</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10039.5305</v>
+        <v>9999.3992</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>9.967000000000001</v>
+        <v>9.987</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -3849,7 +3849,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.004</v>
+        <v>-0.0001</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3860,49 +3860,49 @@
         <v>10.0129</v>
       </c>
       <c r="C4" s="1">
-        <v>10.0129</v>
+        <v>9.992900000000001</v>
       </c>
       <c r="D4" s="1">
-        <v>10.0129</v>
+        <v>10.033</v>
       </c>
       <c r="E4" s="1">
-        <v>2002.6713</v>
+        <v>1998.6587</v>
       </c>
       <c r="F4" s="1">
-        <v>998.7117</v>
+        <v>996.7109</v>
       </c>
       <c r="G4" s="1">
         <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>20052.5478</v>
+        <v>19972.3965</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>20052.5478</v>
+        <v>19972.3965</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>9.986700000000001</v>
+        <v>10.0067</v>
       </c>
       <c r="M4" s="1">
         <v>0.3</v>
       </c>
       <c r="N4" s="1">
-        <v>270.894</v>
+        <v>270.3515</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9729.106</v>
+        <v>-9729.648499999999</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0005999999999999999</v>
+        <v>-0.0014</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3913,34 +3913,34 @@
         <v>10.4583</v>
       </c>
       <c r="C5" s="1">
-        <v>10.4583</v>
+        <v>10.4374</v>
       </c>
       <c r="D5" s="1">
-        <v>10.4583</v>
+        <v>10.4793</v>
       </c>
       <c r="E5" s="1">
-        <v>3001.383</v>
+        <v>2995.3696</v>
       </c>
       <c r="F5" s="1">
-        <v>910.2501999999999</v>
+        <v>924.0964</v>
       </c>
       <c r="G5" s="1">
         <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>31389.3638</v>
+        <v>31263.8701</v>
       </c>
       <c r="I5" s="1">
-        <v>270.894</v>
+        <v>270.3515</v>
       </c>
       <c r="J5" s="1">
-        <v>31660.2578</v>
+        <v>31534.2216</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>9.9954</v>
+        <v>10.0155</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -3952,10 +3952,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9519.669900000001</v>
+        <v>-9683.8832</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0535</v>
+        <v>0.0521</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3966,34 +3966,34 @@
         <v>10.3341</v>
       </c>
       <c r="C6" s="1">
-        <v>10.3341</v>
+        <v>10.3134</v>
       </c>
       <c r="D6" s="1">
-        <v>10.3341</v>
+        <v>10.3548</v>
       </c>
       <c r="E6" s="1">
-        <v>3911.6332</v>
+        <v>3919.4659</v>
       </c>
       <c r="F6" s="1">
-        <v>1040.3638</v>
+        <v>1022.373</v>
       </c>
       <c r="G6" s="1">
         <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>40423.2089</v>
+        <v>40423.02</v>
       </c>
       <c r="I6" s="1">
-        <v>751.224</v>
+        <v>586.4682</v>
       </c>
       <c r="J6" s="1">
-        <v>41174.4329</v>
+        <v>41009.4882</v>
       </c>
       <c r="K6" s="1">
-        <v>39519.6699</v>
+        <v>39683.8832</v>
       </c>
       <c r="L6" s="1">
-        <v>10.1031</v>
+        <v>10.1248</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -4005,10 +4005,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10751.224</v>
+        <v>-10586.4682</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0117</v>
+        <v>-0.0126</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4019,49 +4019,49 @@
         <v>9.884600000000001</v>
       </c>
       <c r="C7" s="1">
-        <v>9.884600000000001</v>
+        <v>9.864800000000001</v>
       </c>
       <c r="D7" s="1">
-        <v>9.884600000000001</v>
+        <v>9.904400000000001</v>
       </c>
       <c r="E7" s="1">
-        <v>4951.9971</v>
+        <v>4941.839</v>
       </c>
       <c r="F7" s="1">
-        <v>1011.6747</v>
+        <v>1009.6523</v>
       </c>
       <c r="G7" s="1">
         <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>48948.5102</v>
+        <v>48750.253</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>48948.5102</v>
+        <v>48750.253</v>
       </c>
       <c r="K7" s="1">
-        <v>50270.894</v>
+        <v>50270.3515</v>
       </c>
       <c r="L7" s="1">
-        <v>10.1516</v>
+        <v>10.1724</v>
       </c>
       <c r="M7" s="1">
         <v>0.5</v>
       </c>
       <c r="N7" s="1">
-        <v>1760.235</v>
+        <v>1763.7597</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-8239.764999999999</v>
+        <v>-8236.240299999999</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0435</v>
+        <v>-0.0443</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4072,34 +4072,34 @@
         <v>9.967499999999999</v>
       </c>
       <c r="C8" s="1">
-        <v>9.967499999999999</v>
+        <v>9.9476</v>
       </c>
       <c r="D8" s="1">
-        <v>9.967499999999999</v>
+        <v>9.987500000000001</v>
       </c>
       <c r="E8" s="1">
-        <v>5963.6718</v>
+        <v>5951.4912</v>
       </c>
       <c r="F8" s="1">
-        <v>1179.858</v>
+        <v>1177.8483</v>
       </c>
       <c r="G8" s="1">
         <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>59442.8986</v>
+        <v>59203.0542</v>
       </c>
       <c r="I8" s="1">
-        <v>1760.235</v>
+        <v>1763.7597</v>
       </c>
       <c r="J8" s="1">
-        <v>61203.1336</v>
+        <v>60966.8139</v>
       </c>
       <c r="K8" s="1">
-        <v>60270.894</v>
+        <v>60270.3515</v>
       </c>
       <c r="L8" s="1">
-        <v>10.1063</v>
+        <v>10.1269</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -4111,10 +4111,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-11760.235</v>
+        <v>-11763.7597</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0382</v>
+        <v>0.0377</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4125,34 +4125,34 @@
         <v>10.4908</v>
       </c>
       <c r="C9" s="1">
-        <v>10.4908</v>
+        <v>10.4698</v>
       </c>
       <c r="D9" s="1">
-        <v>10.4908</v>
+        <v>10.5118</v>
       </c>
       <c r="E9" s="1">
-        <v>7143.5298</v>
+        <v>7129.3395</v>
       </c>
       <c r="F9" s="1">
-        <v>894.7886</v>
+        <v>925.1019</v>
       </c>
       <c r="G9" s="1">
         <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>74941.34269999999</v>
+        <v>74642.7588</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>74941.34269999999</v>
+        <v>74642.7588</v>
       </c>
       <c r="K9" s="1">
-        <v>72031.1289</v>
+        <v>72034.11109999999</v>
       </c>
       <c r="L9" s="1">
-        <v>10.0834</v>
+        <v>10.1039</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -4164,10 +4164,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-9387.0483</v>
+        <v>-9724.486500000001</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0525</v>
+        <v>0.0518</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4178,34 +4178,34 @@
         <v>10.6308</v>
       </c>
       <c r="C10" s="1">
-        <v>10.6308</v>
+        <v>10.6095</v>
       </c>
       <c r="D10" s="1">
-        <v>10.6308</v>
+        <v>10.6521</v>
       </c>
       <c r="E10" s="1">
-        <v>8038.3184</v>
+        <v>8054.4414</v>
       </c>
       <c r="F10" s="1">
-        <v>953.7910000000001</v>
+        <v>955.7209</v>
       </c>
       <c r="G10" s="1">
         <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>85453.7556</v>
+        <v>85453.5965</v>
       </c>
       <c r="I10" s="1">
-        <v>612.9517</v>
+        <v>275.5135</v>
       </c>
       <c r="J10" s="1">
-        <v>86066.70729999999</v>
+        <v>85729.11</v>
       </c>
       <c r="K10" s="1">
-        <v>81418.17720000001</v>
+        <v>81758.59759999999</v>
       </c>
       <c r="L10" s="1">
-        <v>10.1288</v>
+        <v>10.1507</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -4217,10 +4217,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-10139.5613</v>
+        <v>-10180.4341</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0132</v>
+        <v>0.0128</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4231,34 +4231,34 @@
         <v>10.3176</v>
       </c>
       <c r="C11" s="1">
-        <v>10.3176</v>
+        <v>10.297</v>
       </c>
       <c r="D11" s="1">
-        <v>10.3176</v>
+        <v>10.3383</v>
       </c>
       <c r="E11" s="1">
-        <v>8992.109399999999</v>
+        <v>9010.1623</v>
       </c>
       <c r="F11" s="1">
-        <v>1015.0995</v>
+        <v>976.4738</v>
       </c>
       <c r="G11" s="1">
         <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>92776.9883</v>
+        <v>92777.6412</v>
       </c>
       <c r="I11" s="1">
-        <v>473.3904</v>
+        <v>95.07940000000001</v>
       </c>
       <c r="J11" s="1">
-        <v>93250.3786</v>
+        <v>92872.7206</v>
       </c>
       <c r="K11" s="1">
-        <v>91557.73850000001</v>
+        <v>91939.03170000001</v>
       </c>
       <c r="L11" s="1">
-        <v>10.182</v>
+        <v>10.2039</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -4270,10 +4270,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-10473.3904</v>
+        <v>-10095.0794</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0293</v>
+        <v>-0.0298</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4284,34 +4284,34 @@
         <v>10.2392</v>
       </c>
       <c r="C12" s="1">
-        <v>10.2392</v>
+        <v>10.2187</v>
       </c>
       <c r="D12" s="1">
-        <v>10.2392</v>
+        <v>10.2597</v>
       </c>
       <c r="E12" s="1">
-        <v>10007.2089</v>
+        <v>9986.6361</v>
       </c>
       <c r="F12" s="1">
-        <v>976.6387999999999</v>
+        <v>974.6874</v>
       </c>
       <c r="G12" s="1">
         <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>102465.8135</v>
+        <v>102050.4386</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>102465.8135</v>
+        <v>102050.4386</v>
       </c>
       <c r="K12" s="1">
-        <v>102031.1289</v>
+        <v>102034.1111</v>
       </c>
       <c r="L12" s="1">
-        <v>10.1958</v>
+        <v>10.2171</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -4326,7 +4326,7 @@
         <v>-10000</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0076</v>
+        <v>-0.008</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4337,49 +4337,49 @@
         <v>9.978999999999999</v>
       </c>
       <c r="C13" s="1">
-        <v>9.978899999999999</v>
+        <v>9.959</v>
       </c>
       <c r="D13" s="1">
-        <v>9.978999999999999</v>
+        <v>9.999000000000001</v>
       </c>
       <c r="E13" s="1">
-        <v>10983.8477</v>
+        <v>10961.3235</v>
       </c>
       <c r="F13" s="1">
-        <v>1002.1044</v>
+        <v>1000.1</v>
       </c>
       <c r="G13" s="1">
         <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>109606.7179</v>
+        <v>109163.8207</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>109606.7179</v>
+        <v>109163.8207</v>
       </c>
       <c r="K13" s="1">
-        <v>112031.1289</v>
+        <v>112034.1111</v>
       </c>
       <c r="L13" s="1">
-        <v>10.1996</v>
+        <v>10.2209</v>
       </c>
       <c r="M13" s="1">
         <v>0.25</v>
       </c>
       <c r="N13" s="1">
-        <v>2251.622</v>
+        <v>2246.9931</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-7748.378</v>
+        <v>-7753.0069</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0254</v>
+        <v>-0.0258</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4390,34 +4390,34 @@
         <v>10.1873</v>
       </c>
       <c r="C14" s="1">
-        <v>10.1873</v>
+        <v>10.1669</v>
       </c>
       <c r="D14" s="1">
-        <v>10.1873</v>
+        <v>10.2077</v>
       </c>
       <c r="E14" s="1">
-        <v>11985.9521</v>
+        <v>11961.4235</v>
       </c>
       <c r="F14" s="1">
-        <v>-11985.9521</v>
+        <v>-11961.4235</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>122104.4901</v>
+        <v>121610.5967</v>
       </c>
       <c r="I14" s="1">
-        <v>2251.622</v>
+        <v>2246.9931</v>
       </c>
       <c r="J14" s="1">
-        <v>124356.1121</v>
+        <v>123857.5898</v>
       </c>
       <c r="K14" s="1">
-        <v>122031.1289</v>
+        <v>122034.1111</v>
       </c>
       <c r="L14" s="1">
-        <v>10.1812</v>
+        <v>10.2023</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -4429,10 +4429,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>122104.4901</v>
+        <v>121610.5967</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0397</v>
+        <v>0.0394</v>
       </c>
     </row>
   </sheetData>
@@ -4490,19 +4490,19 @@
         <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>10.1863</v>
+        <v>10.2067</v>
       </c>
       <c r="D3" s="1">
-        <v>10.165</v>
+        <v>10.1866</v>
       </c>
       <c r="E3" s="1">
-        <v>10.1721</v>
+        <v>10.1936</v>
       </c>
       <c r="F3" s="1">
-        <v>10.1773</v>
+        <v>10.1992</v>
       </c>
       <c r="G3" s="1">
-        <v>10.1812</v>
+        <v>10.2023</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -4513,19 +4513,19 @@
         <v>0.0263</v>
       </c>
       <c r="C4" s="3">
-        <v>0.0835</v>
+        <v>0.0712</v>
       </c>
       <c r="D4" s="3">
-        <v>0.0851</v>
+        <v>0.07290000000000001</v>
       </c>
       <c r="E4" s="3">
-        <v>0.0851</v>
+        <v>0.0727</v>
       </c>
       <c r="F4" s="3">
-        <v>0.0847</v>
+        <v>0.0721</v>
       </c>
       <c r="G4" s="3">
-        <v>0.0843</v>
+        <v>0.07190000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
@@ -4536,19 +4536,19 @@
         <v>0.0948</v>
       </c>
       <c r="C5" s="3">
-        <v>0.1083</v>
+        <v>0.1082</v>
       </c>
       <c r="D5" s="3">
-        <v>0.1067</v>
+        <v>0.107</v>
       </c>
       <c r="E5" s="3">
-        <v>0.1079</v>
+        <v>0.1081</v>
       </c>
       <c r="F5" s="3">
-        <v>0.1085</v>
+        <v>0.1086</v>
       </c>
       <c r="G5" s="3">
-        <v>0.1089</v>
+        <v>0.1088</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
@@ -4559,19 +4559,19 @@
         <v>0.0635</v>
       </c>
       <c r="C6" s="4">
-        <v>0.5838</v>
+        <v>0.4698</v>
       </c>
       <c r="D6" s="4">
-        <v>0.607</v>
+        <v>0.4915</v>
       </c>
       <c r="E6" s="4">
-        <v>0.5999</v>
+        <v>0.4849</v>
       </c>
       <c r="F6" s="4">
-        <v>0.593</v>
+        <v>0.4771</v>
       </c>
       <c r="G6" s="4">
-        <v>0.5878</v>
+        <v>0.4741</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
@@ -4579,19 +4579,19 @@
         <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>0.0677</v>
+        <v>0.0598</v>
       </c>
       <c r="D7" s="3">
-        <v>0.0713</v>
+        <v>0.0631</v>
       </c>
       <c r="E7" s="3">
-        <v>0.07000000000000001</v>
+        <v>0.062</v>
       </c>
       <c r="F7" s="3">
-        <v>0.06909999999999999</v>
+        <v>0.061</v>
       </c>
       <c r="G7" s="3">
-        <v>0.0682</v>
+        <v>0.0603</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
@@ -4599,19 +4599,19 @@
         <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>4289.2722</v>
+        <v>4280.6196</v>
       </c>
       <c r="D8" s="1">
-        <v>4172.7547</v>
+        <v>4180.0213</v>
       </c>
       <c r="E8" s="1">
-        <v>4235.4328</v>
+        <v>4242.8249</v>
       </c>
       <c r="F8" s="1">
-        <v>4270.372</v>
+        <v>4268.492</v>
       </c>
       <c r="G8" s="1">
-        <v>4282.7509</v>
+        <v>4281.1043</v>
       </c>
     </row>
   </sheetData>

--- a/output/1Y_P82_KFSDIV.xlsx
+++ b/output/1Y_P82_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -4442,13 +4445,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
@@ -4614,6 +4617,26 @@
         <v>5258.2219</v>
       </c>
     </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1.0162</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.0179</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1.0177</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1.0173</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1.0169</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
